--- a/Code/Results/Cases/Case_2_214/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_214/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.65589457324397</v>
+        <v>9.864663296621467</v>
       </c>
       <c r="C2">
-        <v>8.452590982278965</v>
+        <v>5.125298282309029</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>22.79781961797159</v>
+        <v>21.80972674123574</v>
       </c>
       <c r="F2">
-        <v>36.43808527654254</v>
+        <v>42.38265513367197</v>
       </c>
       <c r="G2">
-        <v>26.04231678901352</v>
+        <v>34.01192259201394</v>
       </c>
       <c r="H2">
-        <v>9.811974187713023</v>
+        <v>15.65872118919969</v>
       </c>
       <c r="I2">
-        <v>14.53204136837727</v>
+        <v>22.49605537051562</v>
       </c>
       <c r="J2">
-        <v>4.893190458916868</v>
+        <v>8.418107799487522</v>
       </c>
       <c r="K2">
-        <v>12.44796101689983</v>
+        <v>9.993832589554678</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.76539598935322</v>
+        <v>9.55549872407156</v>
       </c>
       <c r="C3">
-        <v>7.896891865177831</v>
+        <v>4.895355888373637</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>21.37752888792476</v>
+        <v>21.48453272885329</v>
       </c>
       <c r="F3">
-        <v>34.88204276395228</v>
+        <v>42.21212241171112</v>
       </c>
       <c r="G3">
-        <v>25.90634364197502</v>
+        <v>34.1556105386508</v>
       </c>
       <c r="H3">
-        <v>9.930899399127322</v>
+        <v>15.72664154162027</v>
       </c>
       <c r="I3">
-        <v>14.79807600610703</v>
+        <v>22.61967449578849</v>
       </c>
       <c r="J3">
-        <v>4.959252443035428</v>
+        <v>8.44615483969379</v>
       </c>
       <c r="K3">
-        <v>11.68772915350606</v>
+        <v>9.78612181453529</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.18781213316071</v>
+        <v>9.362095983091672</v>
       </c>
       <c r="C4">
-        <v>7.537392663057315</v>
+        <v>4.74940854058992</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>20.46930970972375</v>
+        <v>21.28722839087556</v>
       </c>
       <c r="F4">
-        <v>33.92803055836914</v>
+        <v>42.11952840203458</v>
       </c>
       <c r="G4">
-        <v>25.86667906264338</v>
+        <v>34.25653226181844</v>
       </c>
       <c r="H4">
-        <v>10.0121545846829</v>
+        <v>15.77137426321582</v>
       </c>
       <c r="I4">
-        <v>14.97525435840737</v>
+        <v>22.70064455172188</v>
       </c>
       <c r="J4">
-        <v>5.001929044244918</v>
+        <v>8.464416462934739</v>
       </c>
       <c r="K4">
-        <v>11.19642035419758</v>
+        <v>9.658065727796902</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.9446595718622</v>
+        <v>9.282508170836159</v>
       </c>
       <c r="C5">
-        <v>7.386263664839239</v>
+        <v>4.688823276460693</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.09029809437798</v>
+        <v>21.20751764228121</v>
       </c>
       <c r="F5">
-        <v>33.54010216519524</v>
+        <v>42.0848667056283</v>
       </c>
       <c r="G5">
-        <v>25.86095699556541</v>
+        <v>34.30082806960782</v>
       </c>
       <c r="H5">
-        <v>10.04723476072066</v>
+        <v>15.7903640744783</v>
       </c>
       <c r="I5">
-        <v>15.05074783053043</v>
+        <v>22.73491293680597</v>
       </c>
       <c r="J5">
-        <v>5.019842484378511</v>
+        <v>8.472120305955128</v>
       </c>
       <c r="K5">
-        <v>10.99005187063539</v>
+        <v>9.605823566795648</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.90381338937439</v>
+        <v>9.26924970017501</v>
       </c>
       <c r="C6">
-        <v>7.360888425882796</v>
+        <v>4.678698838765654</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20.02683246559992</v>
+        <v>21.19432637912421</v>
       </c>
       <c r="F6">
-        <v>33.47575298403603</v>
+        <v>42.07929728799849</v>
       </c>
       <c r="G6">
-        <v>25.86062019562646</v>
+        <v>34.30837408170555</v>
       </c>
       <c r="H6">
-        <v>10.05317581284767</v>
+        <v>15.79356324697488</v>
       </c>
       <c r="I6">
-        <v>15.06347720030239</v>
+        <v>22.74067997627473</v>
       </c>
       <c r="J6">
-        <v>5.022848300196078</v>
+        <v>8.473415364553752</v>
       </c>
       <c r="K6">
-        <v>10.95541332616508</v>
+        <v>9.597147438650376</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.18456444316129</v>
+        <v>9.361025599556486</v>
       </c>
       <c r="C7">
-        <v>7.535373266108583</v>
+        <v>4.74859583952905</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20.46423398592741</v>
+        <v>21.28615045245737</v>
       </c>
       <c r="F7">
-        <v>33.9227947364134</v>
+        <v>42.11904847785767</v>
       </c>
       <c r="G7">
-        <v>25.86656039457802</v>
+        <v>34.25711684932662</v>
       </c>
       <c r="H7">
-        <v>10.01261984950575</v>
+        <v>15.77162728693278</v>
       </c>
       <c r="I7">
-        <v>14.97625939340302</v>
+        <v>22.70110155751247</v>
       </c>
       <c r="J7">
-        <v>5.002168527408315</v>
+        <v>8.464519297946214</v>
       </c>
       <c r="K7">
-        <v>11.19366209809107</v>
+        <v>9.657361310201393</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.35522331868035</v>
+        <v>9.758876854190438</v>
       </c>
       <c r="C8">
-        <v>8.264764297631377</v>
+        <v>5.04705095685383</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>22.31569878433451</v>
+        <v>21.6971674068017</v>
       </c>
       <c r="F8">
-        <v>35.90154294857501</v>
+        <v>42.32135758516802</v>
       </c>
       <c r="G8">
-        <v>25.98599719894642</v>
+        <v>34.0588171997228</v>
       </c>
       <c r="H8">
-        <v>9.851206219808347</v>
+        <v>15.68151084513216</v>
       </c>
       <c r="I8">
-        <v>14.6207810427575</v>
+        <v>22.53762639775481</v>
       </c>
       <c r="J8">
-        <v>4.915523838758226</v>
+        <v>8.427562682560277</v>
       </c>
       <c r="K8">
-        <v>12.19092458496896</v>
+        <v>9.922364994381248</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.40830157923464</v>
+        <v>10.50572262353781</v>
       </c>
       <c r="C9">
-        <v>9.55152562423708</v>
+        <v>5.591294906350091</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>25.65460704288234</v>
+        <v>22.51764625786159</v>
       </c>
       <c r="F9">
-        <v>39.77508840260443</v>
+        <v>42.81289806644135</v>
       </c>
       <c r="G9">
-        <v>26.59231526946716</v>
+        <v>33.77170025134124</v>
       </c>
       <c r="H9">
-        <v>9.605058779527651</v>
+        <v>15.5288695473368</v>
       </c>
       <c r="I9">
-        <v>14.04289827637428</v>
+        <v>22.25734226281344</v>
       </c>
       <c r="J9">
-        <v>4.762877571910231</v>
+        <v>8.363329202214734</v>
       </c>
       <c r="K9">
-        <v>13.95225725718277</v>
+        <v>10.43482334724291</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.7719458513961</v>
+        <v>11.02811766129935</v>
       </c>
       <c r="C10">
-        <v>10.41201269824766</v>
+        <v>5.962513985421724</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>27.93578054433506</v>
+        <v>23.12355322785306</v>
       </c>
       <c r="F10">
-        <v>42.59830889376701</v>
+        <v>43.22979972295032</v>
       </c>
       <c r="G10">
-        <v>27.29534197291179</v>
+        <v>33.62409916053475</v>
       </c>
       <c r="H10">
-        <v>9.47478265302022</v>
+        <v>15.43145760946246</v>
       </c>
       <c r="I10">
-        <v>13.70587833197608</v>
+        <v>22.07609499010288</v>
       </c>
       <c r="J10">
-        <v>4.662055263051065</v>
+        <v>8.321133313667021</v>
       </c>
       <c r="K10">
-        <v>15.12916529762114</v>
+        <v>10.80299858585328</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.36166884379648</v>
+        <v>11.25897955839598</v>
       </c>
       <c r="C11">
-        <v>10.78571234284001</v>
+        <v>6.124585578724298</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>28.98892464987076</v>
+        <v>23.39868352077591</v>
       </c>
       <c r="F11">
-        <v>43.87543303336138</v>
+        <v>43.43105059859537</v>
       </c>
       <c r="G11">
-        <v>27.67684451371115</v>
+        <v>33.57096676691162</v>
       </c>
       <c r="H11">
-        <v>9.428381141743849</v>
+        <v>15.39035433517651</v>
       </c>
       <c r="I11">
-        <v>13.57539744969894</v>
+        <v>21.99902625060979</v>
       </c>
       <c r="J11">
-        <v>4.618869086198853</v>
+        <v>8.303016889368022</v>
       </c>
       <c r="K11">
-        <v>15.6396307372755</v>
+        <v>10.96791539465878</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.5806526717612</v>
+        <v>11.34534885075231</v>
       </c>
       <c r="C12">
-        <v>10.92473396842713</v>
+        <v>6.184941355694837</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>29.3810945448891</v>
+        <v>23.50270050611093</v>
       </c>
       <c r="F12">
-        <v>44.3579291726002</v>
+        <v>43.50887783302422</v>
       </c>
       <c r="G12">
-        <v>27.83059519080363</v>
+        <v>33.55288147664191</v>
       </c>
       <c r="H12">
-        <v>9.412832553269009</v>
+        <v>15.37525235540532</v>
       </c>
       <c r="I12">
-        <v>13.52963460310821</v>
+        <v>21.97061874076153</v>
       </c>
       <c r="J12">
-        <v>4.602923204753369</v>
+        <v>8.296311409368103</v>
       </c>
       <c r="K12">
-        <v>15.82939961152479</v>
+        <v>11.02993677683523</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.53368205569511</v>
+        <v>11.32679567283768</v>
       </c>
       <c r="C13">
-        <v>10.89490289980412</v>
+        <v>6.171988464686001</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>29.29692561539082</v>
+        <v>23.48030760889061</v>
       </c>
       <c r="F13">
-        <v>44.25406551463125</v>
+        <v>43.49204522398307</v>
       </c>
       <c r="G13">
-        <v>27.7970631658343</v>
+        <v>33.55668566666035</v>
       </c>
       <c r="H13">
-        <v>9.416088358771676</v>
+        <v>15.37848422566904</v>
       </c>
       <c r="I13">
-        <v>13.5393220249885</v>
+        <v>21.97670221295616</v>
       </c>
       <c r="J13">
-        <v>4.606338900733138</v>
+        <v>8.297748673591929</v>
       </c>
       <c r="K13">
-        <v>15.78868575097486</v>
+        <v>11.01659935430348</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.37977116376774</v>
+        <v>11.26610673642262</v>
       </c>
       <c r="C14">
-        <v>10.7971992760051</v>
+        <v>6.129571676045529</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>29.02132051880636</v>
+        <v>23.40724498976573</v>
       </c>
       <c r="F14">
-        <v>43.91515101714323</v>
+        <v>43.43742136640515</v>
       </c>
       <c r="G14">
-        <v>27.68930538469603</v>
+        <v>33.56943798961446</v>
       </c>
       <c r="H14">
-        <v>9.427060372511093</v>
+        <v>15.3891026003454</v>
       </c>
       <c r="I14">
-        <v>13.57155719125651</v>
+        <v>21.99667356352695</v>
       </c>
       <c r="J14">
-        <v>4.617548894004077</v>
+        <v>8.302462124408944</v>
       </c>
       <c r="K14">
-        <v>15.65531363438036</v>
+        <v>10.97302685814939</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.284934382918</v>
+        <v>11.2287936853949</v>
       </c>
       <c r="C15">
-        <v>10.73703057715111</v>
+        <v>6.103456627935605</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>28.85164639626887</v>
+        <v>23.36246720718361</v>
       </c>
       <c r="F15">
-        <v>43.70740854888219</v>
+        <v>43.40417182696645</v>
       </c>
       <c r="G15">
-        <v>27.62452125735219</v>
+        <v>33.5775147139172</v>
       </c>
       <c r="H15">
-        <v>9.43404982950632</v>
+        <v>15.39566699051984</v>
       </c>
       <c r="I15">
-        <v>13.59178862280187</v>
+        <v>22.00900783571273</v>
       </c>
       <c r="J15">
-        <v>4.624469176429504</v>
+        <v>8.30536940215214</v>
       </c>
       <c r="K15">
-        <v>15.5731608417716</v>
+        <v>10.94627986547758</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.73279601221085</v>
+        <v>11.01288699977784</v>
       </c>
       <c r="C16">
-        <v>10.38723862118462</v>
+        <v>5.951781893256398</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>27.8660165537116</v>
+        <v>23.105554394486</v>
       </c>
       <c r="F16">
-        <v>42.51469176616378</v>
+        <v>43.21687671724663</v>
       </c>
       <c r="G16">
-        <v>27.27168747073534</v>
+        <v>33.62785517405504</v>
       </c>
       <c r="H16">
-        <v>9.478088404255205</v>
+        <v>15.4342085118754</v>
       </c>
       <c r="I16">
-        <v>13.71489527537691</v>
+        <v>22.08124014844416</v>
       </c>
       <c r="J16">
-        <v>4.664933333745421</v>
+        <v>8.322338944979119</v>
       </c>
       <c r="K16">
-        <v>15.09530784514976</v>
+        <v>10.79216401381589</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.38628575551183</v>
+        <v>10.8786406424861</v>
       </c>
       <c r="C17">
-        <v>10.16815019673006</v>
+        <v>5.856962920882157</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>27.28037079167271</v>
+        <v>22.94774869351985</v>
       </c>
       <c r="F17">
-        <v>41.78107007133302</v>
+        <v>43.10491370127401</v>
       </c>
       <c r="G17">
-        <v>27.07134254573135</v>
+        <v>33.6623407848267</v>
       </c>
       <c r="H17">
-        <v>9.508517769828483</v>
+        <v>15.45867557575582</v>
       </c>
       <c r="I17">
-        <v>13.79651226213964</v>
+        <v>22.12693269751296</v>
       </c>
       <c r="J17">
-        <v>4.690457817235721</v>
+        <v>8.333025274295872</v>
       </c>
       <c r="K17">
-        <v>14.79581141900955</v>
+        <v>10.69691747293828</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.18409693867179</v>
+        <v>10.80079181089035</v>
       </c>
       <c r="C18">
-        <v>10.04046254397109</v>
+        <v>5.801787638106967</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>26.94253740157504</v>
+        <v>22.85694160512945</v>
       </c>
       <c r="F18">
-        <v>41.35843541125531</v>
+        <v>43.04161063427284</v>
       </c>
       <c r="G18">
-        <v>26.96189417266058</v>
+        <v>33.68349376780878</v>
       </c>
       <c r="H18">
-        <v>9.527219360072184</v>
+        <v>15.473050431743</v>
       </c>
       <c r="I18">
-        <v>13.84558111003109</v>
+        <v>22.15372020068537</v>
       </c>
       <c r="J18">
-        <v>4.70538937778407</v>
+        <v>8.339273317535016</v>
       </c>
       <c r="K18">
-        <v>14.62120026273325</v>
+        <v>10.64189580688287</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.11514170875305</v>
+        <v>10.77432719548704</v>
       </c>
       <c r="C19">
-        <v>9.996940472109946</v>
+        <v>5.782997989783683</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>26.8275235274376</v>
+        <v>22.82619177731008</v>
       </c>
       <c r="F19">
-        <v>41.21522681407285</v>
+        <v>43.02036686142348</v>
       </c>
       <c r="G19">
-        <v>26.92581713738271</v>
+        <v>33.69088150693479</v>
       </c>
       <c r="H19">
-        <v>9.533752344767018</v>
+        <v>15.47796934724814</v>
       </c>
       <c r="I19">
-        <v>13.86254944497663</v>
+        <v>22.16287687025673</v>
       </c>
       <c r="J19">
-        <v>4.7104873463728</v>
+        <v>8.341406248077522</v>
       </c>
       <c r="K19">
-        <v>14.5616751617014</v>
+        <v>10.62322735916968</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.42347049488796</v>
+        <v>10.89299759549159</v>
       </c>
       <c r="C20">
-        <v>10.19164534326231</v>
+        <v>5.867122892588125</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>27.34259766743089</v>
+        <v>22.96455237958605</v>
       </c>
       <c r="F20">
-        <v>41.85923612607578</v>
+        <v>43.11671936967672</v>
       </c>
       <c r="G20">
-        <v>27.09206779233315</v>
+        <v>33.65853320017368</v>
       </c>
       <c r="H20">
-        <v>9.505153165047092</v>
+        <v>15.45603974444443</v>
       </c>
       <c r="I20">
-        <v>13.78760155422876</v>
+        <v>22.12201622094456</v>
       </c>
       <c r="J20">
-        <v>4.687714608189137</v>
+        <v>8.331877188521615</v>
       </c>
       <c r="K20">
-        <v>14.82793607853891</v>
+        <v>10.70708174588478</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.42509549331562</v>
+        <v>11.28396171141454</v>
       </c>
       <c r="C21">
-        <v>10.82596427124828</v>
+        <v>6.142058406746165</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>29.10245087619564</v>
+        <v>23.42871059282731</v>
       </c>
       <c r="F21">
-        <v>44.01472921655934</v>
+        <v>43.45342222489722</v>
       </c>
       <c r="G21">
-        <v>27.720701397326</v>
+        <v>33.56563694747314</v>
       </c>
       <c r="H21">
-        <v>9.42378128400664</v>
+        <v>15.38597115130961</v>
       </c>
       <c r="I21">
-        <v>13.56198685989825</v>
+        <v>21.99078638942436</v>
       </c>
       <c r="J21">
-        <v>4.614244982033934</v>
+        <v>8.301073470295659</v>
       </c>
       <c r="K21">
-        <v>15.69458371236418</v>
+        <v>10.98583725745088</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.05450494562622</v>
+        <v>11.53331064805924</v>
       </c>
       <c r="C22">
-        <v>11.22604547511954</v>
+        <v>6.315801462522892</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>30.2317938390429</v>
+        <v>23.73103777634266</v>
       </c>
       <c r="F22">
-        <v>45.41693944748199</v>
+        <v>43.68288176216615</v>
       </c>
       <c r="G22">
-        <v>28.18582882330941</v>
+        <v>33.51679251116764</v>
       </c>
       <c r="H22">
-        <v>9.382479804141434</v>
+        <v>15.34287628712936</v>
       </c>
       <c r="I22">
-        <v>13.43599093537318</v>
+        <v>21.90954901721942</v>
       </c>
       <c r="J22">
-        <v>4.568618368727686</v>
+        <v>8.281843718809013</v>
       </c>
       <c r="K22">
-        <v>16.24042242749952</v>
+        <v>11.16549438163063</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.72085942125874</v>
+        <v>11.40081658476417</v>
       </c>
       <c r="C23">
-        <v>11.01381813024903</v>
+        <v>6.223626825972441</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>29.63250474059427</v>
+        <v>23.56980524458067</v>
       </c>
       <c r="F23">
-        <v>44.66915946012367</v>
+        <v>43.55957178573868</v>
       </c>
       <c r="G23">
-        <v>27.93248847357174</v>
+        <v>33.54176949439561</v>
       </c>
       <c r="H23">
-        <v>9.403375405523127</v>
+        <v>15.36562941003632</v>
       </c>
       <c r="I23">
-        <v>13.50114380620328</v>
+        <v>21.95249155283706</v>
       </c>
       <c r="J23">
-        <v>4.592743036118947</v>
+        <v>8.292024538279273</v>
       </c>
       <c r="K23">
-        <v>15.9509611338439</v>
+        <v>11.06985783798088</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.40666854728194</v>
+        <v>10.88650889418507</v>
       </c>
       <c r="C24">
-        <v>10.18102858308437</v>
+        <v>5.862531630135772</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>27.31447675220662</v>
+        <v>22.95695568262493</v>
       </c>
       <c r="F24">
-        <v>41.8238999414344</v>
+        <v>43.11137870267562</v>
       </c>
       <c r="G24">
-        <v>27.08268008430331</v>
+        <v>33.66025047783775</v>
       </c>
       <c r="H24">
-        <v>9.506670555206428</v>
+        <v>15.45723044313041</v>
       </c>
       <c r="I24">
-        <v>13.79162342758835</v>
+        <v>22.12423734582003</v>
       </c>
       <c r="J24">
-        <v>4.68895401356064</v>
+        <v>8.3323959130901</v>
       </c>
       <c r="K24">
-        <v>14.81342008215094</v>
+        <v>10.70248729316637</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.87855914362566</v>
+        <v>10.30790581712485</v>
       </c>
       <c r="C25">
-        <v>9.218541548416969</v>
+        <v>5.448865366755222</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>24.78304246827195</v>
+        <v>22.29473066079392</v>
       </c>
       <c r="F25">
-        <v>38.73012016927569</v>
+        <v>42.66996646355022</v>
       </c>
       <c r="G25">
-        <v>26.38513830688033</v>
+        <v>33.83834052131955</v>
       </c>
       <c r="H25">
-        <v>9.663363849540886</v>
+        <v>15.56757984691974</v>
       </c>
       <c r="I25">
-        <v>14.18504063492006</v>
+        <v>22.32884167094844</v>
       </c>
       <c r="J25">
-        <v>4.80224929695749</v>
+        <v>8.37982680068351</v>
       </c>
       <c r="K25">
-        <v>13.49647710717913</v>
+        <v>10.29737998514642</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_214/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_214/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.864663296621467</v>
+        <v>13.655894573244</v>
       </c>
       <c r="C2">
-        <v>5.125298282309029</v>
+        <v>8.452590982279027</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>21.80972674123574</v>
+        <v>22.79781961797154</v>
       </c>
       <c r="F2">
-        <v>42.38265513367197</v>
+        <v>36.43808527654249</v>
       </c>
       <c r="G2">
-        <v>34.01192259201394</v>
+        <v>26.04231678901331</v>
       </c>
       <c r="H2">
-        <v>15.65872118919969</v>
+        <v>9.811974187712908</v>
       </c>
       <c r="I2">
-        <v>22.49605537051562</v>
+        <v>14.53204136837716</v>
       </c>
       <c r="J2">
-        <v>8.418107799487522</v>
+        <v>4.893190458916867</v>
       </c>
       <c r="K2">
-        <v>9.993832589554678</v>
+        <v>12.44796101689987</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.55549872407156</v>
+        <v>12.76539598935328</v>
       </c>
       <c r="C3">
-        <v>4.895355888373637</v>
+        <v>7.896891865177643</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>21.48453272885329</v>
+        <v>21.37752888792483</v>
       </c>
       <c r="F3">
-        <v>42.21212241171112</v>
+        <v>34.88204276395232</v>
       </c>
       <c r="G3">
-        <v>34.1556105386508</v>
+        <v>25.90634364197506</v>
       </c>
       <c r="H3">
-        <v>15.72664154162027</v>
+        <v>9.930899399127313</v>
       </c>
       <c r="I3">
-        <v>22.61967449578849</v>
+        <v>14.79807600610693</v>
       </c>
       <c r="J3">
-        <v>8.44615483969379</v>
+        <v>4.95925244303552</v>
       </c>
       <c r="K3">
-        <v>9.78612181453529</v>
+        <v>11.68772915350603</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.362095983091672</v>
+        <v>12.1878121331607</v>
       </c>
       <c r="C4">
-        <v>4.74940854058992</v>
+        <v>7.537392663057391</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>21.28722839087556</v>
+        <v>20.46930970972376</v>
       </c>
       <c r="F4">
-        <v>42.11952840203458</v>
+        <v>33.92803055836918</v>
       </c>
       <c r="G4">
-        <v>34.25653226181844</v>
+        <v>25.8666790626432</v>
       </c>
       <c r="H4">
-        <v>15.77137426321582</v>
+        <v>10.0121545846829</v>
       </c>
       <c r="I4">
-        <v>22.70064455172188</v>
+        <v>14.97525435840732</v>
       </c>
       <c r="J4">
-        <v>8.464416462934739</v>
+        <v>5.001929044244922</v>
       </c>
       <c r="K4">
-        <v>9.658065727796902</v>
+        <v>11.1964203541976</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.282508170836159</v>
+        <v>11.94465957186214</v>
       </c>
       <c r="C5">
-        <v>4.688823276460693</v>
+        <v>7.386263664839167</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21.20751764228121</v>
+        <v>20.09029809437799</v>
       </c>
       <c r="F5">
-        <v>42.0848667056283</v>
+        <v>33.54010216519534</v>
       </c>
       <c r="G5">
-        <v>34.30082806960782</v>
+        <v>25.86095699556568</v>
       </c>
       <c r="H5">
-        <v>15.7903640744783</v>
+        <v>10.04723476072066</v>
       </c>
       <c r="I5">
-        <v>22.73491293680597</v>
+        <v>15.05074783053052</v>
       </c>
       <c r="J5">
-        <v>8.472120305955128</v>
+        <v>5.019842484378477</v>
       </c>
       <c r="K5">
-        <v>9.605823566795648</v>
+        <v>10.99005187063534</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.26924970017501</v>
+        <v>11.90381338937434</v>
       </c>
       <c r="C6">
-        <v>4.678698838765654</v>
+        <v>7.360888425882796</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21.19432637912421</v>
+        <v>20.02683246559987</v>
       </c>
       <c r="F6">
-        <v>42.07929728799849</v>
+        <v>33.47575298403608</v>
       </c>
       <c r="G6">
-        <v>34.30837408170555</v>
+        <v>25.86062019562693</v>
       </c>
       <c r="H6">
-        <v>15.79356324697488</v>
+        <v>10.05317581284779</v>
       </c>
       <c r="I6">
-        <v>22.74067997627473</v>
+        <v>15.06347720030265</v>
       </c>
       <c r="J6">
-        <v>8.473415364553752</v>
+        <v>5.022848300196109</v>
       </c>
       <c r="K6">
-        <v>9.597147438650376</v>
+        <v>10.95541332616499</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.361025599556486</v>
+        <v>12.18456444316134</v>
       </c>
       <c r="C7">
-        <v>4.74859583952905</v>
+        <v>7.535373266108429</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>21.28615045245737</v>
+        <v>20.4642339859274</v>
       </c>
       <c r="F7">
-        <v>42.11904847785767</v>
+        <v>33.92279473641348</v>
       </c>
       <c r="G7">
-        <v>34.25711684932662</v>
+        <v>25.86656039457816</v>
       </c>
       <c r="H7">
-        <v>15.77162728693278</v>
+        <v>10.01261984950571</v>
       </c>
       <c r="I7">
-        <v>22.70110155751247</v>
+        <v>14.97625939340302</v>
       </c>
       <c r="J7">
-        <v>8.464519297946214</v>
+        <v>5.002168527408318</v>
       </c>
       <c r="K7">
-        <v>9.657361310201393</v>
+        <v>11.19366209809108</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.758876854190438</v>
+        <v>13.35522331868037</v>
       </c>
       <c r="C8">
-        <v>5.04705095685383</v>
+        <v>8.264764297631331</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>21.6971674068017</v>
+        <v>22.31569878433449</v>
       </c>
       <c r="F8">
-        <v>42.32135758516802</v>
+        <v>35.90154294857508</v>
       </c>
       <c r="G8">
-        <v>34.0588171997228</v>
+        <v>25.9859971989465</v>
       </c>
       <c r="H8">
-        <v>15.68151084513216</v>
+        <v>9.851206219808361</v>
       </c>
       <c r="I8">
-        <v>22.53762639775481</v>
+        <v>14.62078104275753</v>
       </c>
       <c r="J8">
-        <v>8.427562682560277</v>
+        <v>4.91552383875817</v>
       </c>
       <c r="K8">
-        <v>9.922364994381248</v>
+        <v>12.19092458496893</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.50572262353781</v>
+        <v>15.4083015792346</v>
       </c>
       <c r="C9">
-        <v>5.591294906350091</v>
+        <v>9.551525624237124</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>22.51764625786159</v>
+        <v>25.65460704288233</v>
       </c>
       <c r="F9">
-        <v>42.81289806644135</v>
+        <v>39.77508840260449</v>
       </c>
       <c r="G9">
-        <v>33.77170025134124</v>
+        <v>26.59231526946725</v>
       </c>
       <c r="H9">
-        <v>15.5288695473368</v>
+        <v>9.605058779527754</v>
       </c>
       <c r="I9">
-        <v>22.25734226281344</v>
+        <v>14.04289827637446</v>
       </c>
       <c r="J9">
-        <v>8.363329202214734</v>
+        <v>4.762877571910233</v>
       </c>
       <c r="K9">
-        <v>10.43482334724291</v>
+        <v>13.95225725718279</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.02811766129935</v>
+        <v>16.77194585139608</v>
       </c>
       <c r="C10">
-        <v>5.962513985421724</v>
+        <v>10.41201269824775</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>23.12355322785306</v>
+        <v>27.93578054433505</v>
       </c>
       <c r="F10">
-        <v>43.22979972295032</v>
+        <v>42.59830889376701</v>
       </c>
       <c r="G10">
-        <v>33.62409916053475</v>
+        <v>27.2953419729119</v>
       </c>
       <c r="H10">
-        <v>15.43145760946246</v>
+        <v>9.474782653020281</v>
       </c>
       <c r="I10">
-        <v>22.07609499010288</v>
+        <v>13.7058783319762</v>
       </c>
       <c r="J10">
-        <v>8.321133313667021</v>
+        <v>4.662055263051094</v>
       </c>
       <c r="K10">
-        <v>10.80299858585328</v>
+        <v>15.12916529762113</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.25897955839598</v>
+        <v>17.36166884379642</v>
       </c>
       <c r="C11">
-        <v>6.124585578724298</v>
+        <v>10.78571234284007</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>23.39868352077591</v>
+        <v>28.98892464987069</v>
       </c>
       <c r="F11">
-        <v>43.43105059859537</v>
+        <v>43.8754330333614</v>
       </c>
       <c r="G11">
-        <v>33.57096676691162</v>
+        <v>27.67684451371142</v>
       </c>
       <c r="H11">
-        <v>15.39035433517651</v>
+        <v>9.428381141743959</v>
       </c>
       <c r="I11">
-        <v>21.99902625060979</v>
+        <v>13.57539744969917</v>
       </c>
       <c r="J11">
-        <v>8.303016889368022</v>
+        <v>4.618869086198921</v>
       </c>
       <c r="K11">
-        <v>10.96791539465878</v>
+        <v>15.63963073727549</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.34534885075231</v>
+        <v>17.58065267176119</v>
       </c>
       <c r="C12">
-        <v>6.184941355694837</v>
+        <v>10.92473396842702</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>23.50270050611093</v>
+        <v>29.38109454488906</v>
       </c>
       <c r="F12">
-        <v>43.50887783302422</v>
+        <v>44.35792917260029</v>
       </c>
       <c r="G12">
-        <v>33.55288147664191</v>
+        <v>27.83059519080378</v>
       </c>
       <c r="H12">
-        <v>15.37525235540532</v>
+        <v>9.412832553268997</v>
       </c>
       <c r="I12">
-        <v>21.97061874076153</v>
+        <v>13.52963460310822</v>
       </c>
       <c r="J12">
-        <v>8.296311409368103</v>
+        <v>4.602923204753375</v>
       </c>
       <c r="K12">
-        <v>11.02993677683523</v>
+        <v>15.82939961152478</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.32679567283768</v>
+        <v>17.53368205569512</v>
       </c>
       <c r="C13">
-        <v>6.171988464686001</v>
+        <v>10.89490289980415</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>23.48030760889061</v>
+        <v>29.29692561539085</v>
       </c>
       <c r="F13">
-        <v>43.49204522398307</v>
+        <v>44.25406551463125</v>
       </c>
       <c r="G13">
-        <v>33.55668566666035</v>
+        <v>27.79706316583426</v>
       </c>
       <c r="H13">
-        <v>15.37848422566904</v>
+        <v>9.416088358771683</v>
       </c>
       <c r="I13">
-        <v>21.97670221295616</v>
+        <v>13.53932202498844</v>
       </c>
       <c r="J13">
-        <v>8.297748673591929</v>
+        <v>4.606338900733169</v>
       </c>
       <c r="K13">
-        <v>11.01659935430348</v>
+        <v>15.78868575097484</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.26610673642262</v>
+        <v>17.37977116376772</v>
       </c>
       <c r="C14">
-        <v>6.129571676045529</v>
+        <v>10.79719927600511</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>23.40724498976573</v>
+        <v>29.02132051880643</v>
       </c>
       <c r="F14">
-        <v>43.43742136640515</v>
+        <v>43.91515101714318</v>
       </c>
       <c r="G14">
-        <v>33.56943798961446</v>
+        <v>27.68930538469592</v>
       </c>
       <c r="H14">
-        <v>15.3891026003454</v>
+        <v>9.427060372511114</v>
       </c>
       <c r="I14">
-        <v>21.99667356352695</v>
+        <v>13.57155719125659</v>
       </c>
       <c r="J14">
-        <v>8.302462124408944</v>
+        <v>4.617548894004094</v>
       </c>
       <c r="K14">
-        <v>10.97302685814939</v>
+        <v>15.6553136343804</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.2287936853949</v>
+        <v>17.28493438291804</v>
       </c>
       <c r="C15">
-        <v>6.103456627935605</v>
+        <v>10.73703057715121</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>23.36246720718361</v>
+        <v>28.85164639626879</v>
       </c>
       <c r="F15">
-        <v>43.40417182696645</v>
+        <v>43.70740854888221</v>
       </c>
       <c r="G15">
-        <v>33.5775147139172</v>
+        <v>27.62452125735231</v>
       </c>
       <c r="H15">
-        <v>15.39566699051984</v>
+        <v>9.434049829506286</v>
       </c>
       <c r="I15">
-        <v>22.00900783571273</v>
+        <v>13.59178862280197</v>
       </c>
       <c r="J15">
-        <v>8.30536940215214</v>
+        <v>4.624469176429457</v>
       </c>
       <c r="K15">
-        <v>10.94627986547758</v>
+        <v>15.57316084177163</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.01288699977784</v>
+        <v>16.73279601221077</v>
       </c>
       <c r="C16">
-        <v>5.951781893256398</v>
+        <v>10.38723862118466</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>23.105554394486</v>
+        <v>27.86601655371152</v>
       </c>
       <c r="F16">
-        <v>43.21687671724663</v>
+        <v>42.51469176616386</v>
       </c>
       <c r="G16">
-        <v>33.62785517405504</v>
+        <v>27.2716874707357</v>
       </c>
       <c r="H16">
-        <v>15.4342085118754</v>
+        <v>9.478088404255278</v>
       </c>
       <c r="I16">
-        <v>22.08124014844416</v>
+        <v>13.71489527537714</v>
       </c>
       <c r="J16">
-        <v>8.322338944979119</v>
+        <v>4.664933333745362</v>
       </c>
       <c r="K16">
-        <v>10.79216401381589</v>
+        <v>15.09530784514973</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.8786406424861</v>
+        <v>16.38628575551187</v>
       </c>
       <c r="C17">
-        <v>5.856962920882157</v>
+        <v>10.1681501967299</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>22.94774869351985</v>
+        <v>27.28037079167269</v>
       </c>
       <c r="F17">
-        <v>43.10491370127401</v>
+        <v>41.78107007133303</v>
       </c>
       <c r="G17">
-        <v>33.6623407848267</v>
+        <v>27.07134254573145</v>
       </c>
       <c r="H17">
-        <v>15.45867557575582</v>
+        <v>9.508517769828483</v>
       </c>
       <c r="I17">
-        <v>22.12693269751296</v>
+        <v>13.79651226213966</v>
       </c>
       <c r="J17">
-        <v>8.333025274295872</v>
+        <v>4.690457817235782</v>
       </c>
       <c r="K17">
-        <v>10.69691747293828</v>
+        <v>14.79581141900954</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.80079181089035</v>
+        <v>16.18409693867195</v>
       </c>
       <c r="C18">
-        <v>5.801787638106967</v>
+        <v>10.04046254397093</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>22.85694160512945</v>
+        <v>26.94253740157499</v>
       </c>
       <c r="F18">
-        <v>43.04161063427284</v>
+        <v>41.35843541125539</v>
       </c>
       <c r="G18">
-        <v>33.68349376780878</v>
+        <v>26.96189417266057</v>
       </c>
       <c r="H18">
-        <v>15.473050431743</v>
+        <v>9.527219360072179</v>
       </c>
       <c r="I18">
-        <v>22.15372020068537</v>
+        <v>13.84558111003096</v>
       </c>
       <c r="J18">
-        <v>8.339273317535016</v>
+        <v>4.705389377784021</v>
       </c>
       <c r="K18">
-        <v>10.64189580688287</v>
+        <v>14.62120026273327</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.77432719548704</v>
+        <v>16.11514170875301</v>
       </c>
       <c r="C19">
-        <v>5.782997989783683</v>
+        <v>9.996940472110067</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>22.82619177731008</v>
+        <v>26.82752352743761</v>
       </c>
       <c r="F19">
-        <v>43.02036686142348</v>
+        <v>41.21522681407285</v>
       </c>
       <c r="G19">
-        <v>33.69088150693479</v>
+        <v>26.9258171373828</v>
       </c>
       <c r="H19">
-        <v>15.47796934724814</v>
+        <v>9.53375234476716</v>
       </c>
       <c r="I19">
-        <v>22.16287687025673</v>
+        <v>13.86254944497691</v>
       </c>
       <c r="J19">
-        <v>8.341406248077522</v>
+        <v>4.71048734637285</v>
       </c>
       <c r="K19">
-        <v>10.62322735916968</v>
+        <v>14.56167516170138</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.89299759549159</v>
+        <v>16.42347049488793</v>
       </c>
       <c r="C20">
-        <v>5.867122892588125</v>
+        <v>10.19164534326215</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>22.96455237958605</v>
+        <v>27.34259766743086</v>
       </c>
       <c r="F20">
-        <v>43.11671936967672</v>
+        <v>41.85923612607581</v>
       </c>
       <c r="G20">
-        <v>33.65853320017368</v>
+        <v>27.09206779233336</v>
       </c>
       <c r="H20">
-        <v>15.45603974444443</v>
+        <v>9.505153165047195</v>
       </c>
       <c r="I20">
-        <v>22.12201622094456</v>
+        <v>13.78760155422892</v>
       </c>
       <c r="J20">
-        <v>8.331877188521615</v>
+        <v>4.687714608189198</v>
       </c>
       <c r="K20">
-        <v>10.70708174588478</v>
+        <v>14.82793607853881</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.28396171141454</v>
+        <v>17.42509549331564</v>
       </c>
       <c r="C21">
-        <v>6.142058406746165</v>
+        <v>10.8259642712484</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>23.42871059282731</v>
+        <v>29.10245087619564</v>
       </c>
       <c r="F21">
-        <v>43.45342222489722</v>
+        <v>44.01472921655932</v>
       </c>
       <c r="G21">
-        <v>33.56563694747314</v>
+        <v>27.72070139732612</v>
       </c>
       <c r="H21">
-        <v>15.38597115130961</v>
+        <v>9.423781284006685</v>
       </c>
       <c r="I21">
-        <v>21.99078638942436</v>
+        <v>13.5619868598984</v>
       </c>
       <c r="J21">
-        <v>8.301073470295659</v>
+        <v>4.61424498203393</v>
       </c>
       <c r="K21">
-        <v>10.98583725745088</v>
+        <v>15.69458371236425</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.53331064805924</v>
+        <v>18.05450494562617</v>
       </c>
       <c r="C22">
-        <v>6.315801462522892</v>
+        <v>11.22604547511955</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>23.73103777634266</v>
+        <v>30.23179383904287</v>
       </c>
       <c r="F22">
-        <v>43.68288176216615</v>
+        <v>45.41693944748199</v>
       </c>
       <c r="G22">
-        <v>33.51679251116764</v>
+        <v>28.18582882330958</v>
       </c>
       <c r="H22">
-        <v>15.34287628712936</v>
+        <v>9.38247980414153</v>
       </c>
       <c r="I22">
-        <v>21.90954901721942</v>
+        <v>13.43599093537345</v>
       </c>
       <c r="J22">
-        <v>8.281843718809013</v>
+        <v>4.56861836872778</v>
       </c>
       <c r="K22">
-        <v>11.16549438163063</v>
+        <v>16.24042242749947</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.40081658476417</v>
+        <v>17.72085942125878</v>
       </c>
       <c r="C23">
-        <v>6.223626825972441</v>
+        <v>11.01381813024904</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>23.56980524458067</v>
+        <v>29.63250474059415</v>
       </c>
       <c r="F23">
-        <v>43.55957178573868</v>
+        <v>44.66915946012373</v>
       </c>
       <c r="G23">
-        <v>33.54176949439561</v>
+        <v>27.93248847357181</v>
       </c>
       <c r="H23">
-        <v>15.36562941003632</v>
+        <v>9.403375405522983</v>
       </c>
       <c r="I23">
-        <v>21.95249155283706</v>
+        <v>13.50114380620313</v>
       </c>
       <c r="J23">
-        <v>8.292024538279273</v>
+        <v>4.592743036118847</v>
       </c>
       <c r="K23">
-        <v>11.06985783798088</v>
+        <v>15.95096113384395</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.88650889418507</v>
+        <v>16.40666854728185</v>
       </c>
       <c r="C24">
-        <v>5.862531630135772</v>
+        <v>10.18102858308436</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>22.95695568262493</v>
+        <v>27.31447675220661</v>
       </c>
       <c r="F24">
-        <v>43.11137870267562</v>
+        <v>41.82389994143443</v>
       </c>
       <c r="G24">
-        <v>33.66025047783775</v>
+        <v>27.08268008430358</v>
       </c>
       <c r="H24">
-        <v>15.45723044313041</v>
+        <v>9.50667055520646</v>
       </c>
       <c r="I24">
-        <v>22.12423734582003</v>
+        <v>13.79162342758843</v>
       </c>
       <c r="J24">
-        <v>8.3323959130901</v>
+        <v>4.68895401356059</v>
       </c>
       <c r="K24">
-        <v>10.70248729316637</v>
+        <v>14.81342008215087</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.30790581712485</v>
+        <v>14.87855914362565</v>
       </c>
       <c r="C25">
-        <v>5.448865366755222</v>
+        <v>9.21854154841701</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>22.29473066079392</v>
+        <v>24.78304246827189</v>
       </c>
       <c r="F25">
-        <v>42.66996646355022</v>
+        <v>38.73012016927575</v>
       </c>
       <c r="G25">
-        <v>33.83834052131955</v>
+        <v>26.38513830688049</v>
       </c>
       <c r="H25">
-        <v>15.56757984691974</v>
+        <v>9.663363849540973</v>
       </c>
       <c r="I25">
-        <v>22.32884167094844</v>
+        <v>14.18504063492012</v>
       </c>
       <c r="J25">
-        <v>8.37982680068351</v>
+        <v>4.802249296957526</v>
       </c>
       <c r="K25">
-        <v>10.29737998514642</v>
+        <v>13.49647710717912</v>
       </c>
       <c r="L25">
         <v>0</v>
